--- a/SchedulingData/dynamic13/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217.18</v>
+        <v>218.56</v>
       </c>
       <c r="D2" t="n">
-        <v>281.66</v>
+        <v>281.2</v>
       </c>
       <c r="E2" t="n">
-        <v>15.344</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241.04</v>
+        <v>281.2</v>
       </c>
       <c r="D3" t="n">
-        <v>297</v>
+        <v>316.8</v>
       </c>
       <c r="E3" t="n">
-        <v>12.92</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214.9</v>
+        <v>223.78</v>
       </c>
       <c r="D4" t="n">
-        <v>253.54</v>
+        <v>287.76</v>
       </c>
       <c r="E4" t="n">
-        <v>13.356</v>
+        <v>15.384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>203</v>
+        <v>241.34</v>
       </c>
       <c r="D5" t="n">
-        <v>252.7</v>
+        <v>290.7</v>
       </c>
       <c r="E5" t="n">
-        <v>15.26</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>252.7</v>
+        <v>316.8</v>
       </c>
       <c r="D6" t="n">
-        <v>314.5</v>
+        <v>371.46</v>
       </c>
       <c r="E6" t="n">
-        <v>12.18</v>
+        <v>7.224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>253.54</v>
+        <v>287.76</v>
       </c>
       <c r="D7" t="n">
-        <v>332.04</v>
+        <v>333.48</v>
       </c>
       <c r="E7" t="n">
-        <v>9.616</v>
+        <v>11.952</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>332.04</v>
+        <v>269.62</v>
       </c>
       <c r="D8" t="n">
-        <v>375.26</v>
+        <v>334.22</v>
       </c>
       <c r="E8" t="n">
-        <v>6.424</v>
+        <v>10.208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>314.5</v>
+        <v>371.46</v>
       </c>
       <c r="D9" t="n">
-        <v>391.4</v>
+        <v>430.74</v>
       </c>
       <c r="E9" t="n">
-        <v>8.1</v>
+        <v>3.896</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>297</v>
+        <v>290.7</v>
       </c>
       <c r="D10" t="n">
-        <v>359.3</v>
+        <v>348.4</v>
       </c>
       <c r="E10" t="n">
-        <v>10.28</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="11">
@@ -637,174 +637,174 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>391.4</v>
+        <v>219.84</v>
       </c>
       <c r="D11" t="n">
-        <v>440.88</v>
+        <v>280.04</v>
       </c>
       <c r="E11" t="n">
-        <v>5.292</v>
+        <v>13.636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>281.66</v>
+        <v>280.04</v>
       </c>
       <c r="D12" t="n">
-        <v>329.06</v>
+        <v>335.04</v>
       </c>
       <c r="E12" t="n">
-        <v>12.224</v>
+        <v>10.776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>329.06</v>
+        <v>348.4</v>
       </c>
       <c r="D13" t="n">
-        <v>392.66</v>
+        <v>425.98</v>
       </c>
       <c r="E13" t="n">
-        <v>8.984</v>
+        <v>2.472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>240.46</v>
+        <v>225.7</v>
       </c>
       <c r="D14" t="n">
-        <v>294.76</v>
+        <v>290.16</v>
       </c>
       <c r="E14" t="n">
-        <v>12.144</v>
+        <v>13.064</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>359.3</v>
+        <v>334.22</v>
       </c>
       <c r="D15" t="n">
-        <v>414.72</v>
+        <v>385.28</v>
       </c>
       <c r="E15" t="n">
-        <v>7.368</v>
+        <v>6.232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>294.76</v>
+        <v>335.04</v>
       </c>
       <c r="D16" t="n">
-        <v>334.48</v>
+        <v>384.8</v>
       </c>
       <c r="E16" t="n">
-        <v>9.811999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>334.48</v>
+        <v>425.98</v>
       </c>
       <c r="D17" t="n">
-        <v>391.04</v>
+        <v>512.74</v>
       </c>
       <c r="E17" t="n">
-        <v>6.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>240.02</v>
+        <v>512.74</v>
       </c>
       <c r="D18" t="n">
-        <v>268.02</v>
+        <v>557.72</v>
       </c>
       <c r="E18" t="n">
-        <v>13.828</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>375.26</v>
+        <v>384.8</v>
       </c>
       <c r="D19" t="n">
-        <v>416.24</v>
+        <v>416.9</v>
       </c>
       <c r="E19" t="n">
-        <v>3.456</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,146 +812,146 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>416.24</v>
+        <v>557.72</v>
       </c>
       <c r="D20" t="n">
-        <v>450.96</v>
+        <v>592.34</v>
       </c>
       <c r="E20" t="n">
-        <v>1.124</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450.96</v>
+        <v>290.16</v>
       </c>
       <c r="D21" t="n">
-        <v>525.51</v>
+        <v>343.36</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>414.72</v>
+        <v>343.36</v>
       </c>
       <c r="D22" t="n">
-        <v>477.12</v>
+        <v>387.84</v>
       </c>
       <c r="E22" t="n">
-        <v>3.728</v>
+        <v>7.076</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>391.04</v>
+        <v>333.48</v>
       </c>
       <c r="D23" t="n">
-        <v>436.22</v>
+        <v>425.68</v>
       </c>
       <c r="E23" t="n">
-        <v>3.388</v>
+        <v>8.311999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525.51</v>
+        <v>430.74</v>
       </c>
       <c r="D24" t="n">
-        <v>566.83</v>
+        <v>481.52</v>
       </c>
       <c r="E24" t="n">
-        <v>26.568</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>268.02</v>
+        <v>481.52</v>
       </c>
       <c r="D25" t="n">
-        <v>308.08</v>
+        <v>561.46</v>
       </c>
       <c r="E25" t="n">
-        <v>11.452</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440.88</v>
+        <v>387.84</v>
       </c>
       <c r="D26" t="n">
-        <v>496.84</v>
+        <v>433.16</v>
       </c>
       <c r="E26" t="n">
-        <v>2.796</v>
+        <v>4.164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>477.12</v>
+        <v>425.68</v>
       </c>
       <c r="D27" t="n">
-        <v>532.72</v>
+        <v>471.14</v>
       </c>
       <c r="E27" t="n">
-        <v>1.308</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="28">
@@ -960,74 +960,74 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>532.72</v>
+        <v>592.34</v>
       </c>
       <c r="D28" t="n">
-        <v>631.5</v>
+        <v>637.66</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>631.5</v>
+        <v>416.9</v>
       </c>
       <c r="D29" t="n">
-        <v>684.22</v>
+        <v>464.3</v>
       </c>
       <c r="E29" t="n">
-        <v>27.408</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>436.22</v>
+        <v>464.3</v>
       </c>
       <c r="D30" t="n">
-        <v>515</v>
+        <v>554.4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>515</v>
+        <v>554.4</v>
       </c>
       <c r="D31" t="n">
-        <v>585.84</v>
+        <v>625.52</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="32">
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>392.66</v>
+        <v>471.14</v>
       </c>
       <c r="D32" t="n">
-        <v>442.88</v>
+        <v>559.0599999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>6.072</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>496.84</v>
+        <v>559.0599999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>577.85</v>
+        <v>637.55</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,211 +1070,154 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>577.85</v>
+        <v>561.46</v>
       </c>
       <c r="D34" t="n">
-        <v>616.65</v>
+        <v>626.38</v>
       </c>
       <c r="E34" t="n">
-        <v>26.82</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>585.84</v>
+        <v>625.52</v>
       </c>
       <c r="D35" t="n">
-        <v>630.8200000000001</v>
+        <v>656.88</v>
       </c>
       <c r="E35" t="n">
-        <v>27.192</v>
+        <v>23.552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>630.8200000000001</v>
+        <v>385.28</v>
       </c>
       <c r="D36" t="n">
-        <v>692.42</v>
+        <v>437.18</v>
       </c>
       <c r="E36" t="n">
-        <v>25.112</v>
+        <v>3.152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>442.88</v>
+        <v>637.66</v>
       </c>
       <c r="D37" t="n">
-        <v>495.48</v>
+        <v>677.0599999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>2.432</v>
+        <v>18.648</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>308.08</v>
+        <v>437.18</v>
       </c>
       <c r="D38" t="n">
-        <v>400.32</v>
+        <v>494.28</v>
       </c>
       <c r="E38" t="n">
-        <v>7.308</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>684.22</v>
+        <v>494.28</v>
       </c>
       <c r="D39" t="n">
-        <v>758.98</v>
+        <v>595.74</v>
       </c>
       <c r="E39" t="n">
-        <v>25.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>616.65</v>
+        <v>595.74</v>
       </c>
       <c r="D40" t="n">
-        <v>683.75</v>
+        <v>629.24</v>
       </c>
       <c r="E40" t="n">
-        <v>23.7</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>400.32</v>
+        <v>629.24</v>
       </c>
       <c r="D41" t="n">
-        <v>459.98</v>
+        <v>666.46</v>
       </c>
       <c r="E41" t="n">
-        <v>4.932</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>495.48</v>
-      </c>
-      <c r="D42" t="n">
-        <v>587.02</v>
-      </c>
-      <c r="E42" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond19</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>587.02</v>
-      </c>
-      <c r="D43" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.412</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond6</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="D44" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>23.552</v>
+        <v>25.248</v>
       </c>
     </row>
   </sheetData>
